--- a/Вариант 7/Вариант 7-2.xlsx
+++ b/Вариант 7/Вариант 7-2.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="30450" windowHeight="13808"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="29040" windowHeight="13815"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -112,6 +112,21 @@
   <c:lang val="ru-RU"/>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>y=f(x)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
     </c:title>
     <c:plotArea>
@@ -321,25 +336,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="39231488"/>
-        <c:axId val="39234560"/>
+        <c:axId val="108648320"/>
+        <c:axId val="108649856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="39231488"/>
+        <c:axId val="108648320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39234560"/>
+        <c:crossAx val="108649856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="39234560"/>
+        <c:axId val="108649856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -347,20 +362,16 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39231488"/>
+        <c:crossAx val="108648320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -370,16 +381,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>357188</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>100013</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:rowOff>52387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>242888</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>595313</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -408,8 +419,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8062913" y="128587"/>
-          <a:ext cx="1181100" cy="328613"/>
+          <a:off x="7929563" y="52387"/>
+          <a:ext cx="1104900" cy="357188"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -740,15 +751,15 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="9.46484375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.86328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.06640625" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1064,7 +1075,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1076,7 +1087,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
